--- a/Dow 30/Amgen/Amgen DCF.xlsx
+++ b/Dow 30/Amgen/Amgen DCF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Amgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{376CD08F-B3F1-4A7F-8F10-D5D859537AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E5562-9D01-4E07-99D8-9B6341932F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Income Statement:</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>CAGR</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -335,15 +338,6 @@
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,34 +353,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -719,91 +722,91 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="1"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="2" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E4" s="19"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="19">
+      <c r="E4" s="16"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="16">
         <v>1</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="7">
         <v>2</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="7">
         <v>3</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <v>4</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3">
         <v>2017</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <v>2018</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="2">
         <v>2019</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="2">
         <v>2020</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <v>2021</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>2022</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <v>2023</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <v>2024</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="2">
         <v>2025</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="2">
         <v>2026</v>
       </c>
     </row>
@@ -811,49 +814,49 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="17">
         <v>10340</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>10551</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>9740</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>9328</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>9338</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="20">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="17">
         <v>12866</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="18">
         <v>13724</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="18">
         <v>16448</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="18">
         <v>16098</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="18">
         <v>15956</v>
       </c>
     </row>
@@ -861,276 +864,276 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17">
         <v>12483</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="18">
         <v>12866</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="18">
         <v>13567</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="18">
         <v>13714</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="18">
         <v>13648</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="19">
         <v>11909</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <v>11922</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>11959</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="20">
         <v>11777</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="20">
         <v>10166</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="24">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="21">
         <f>79.4%*E6</f>
         <v>8209.9600000000009</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="22">
         <f>12.1%*F6</f>
         <v>1276.671</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="22">
         <f>14.2%*G6</f>
         <v>1383.08</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="22">
         <f>10.7%*H6</f>
         <v>998.096</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="22">
         <f>12.1%*I6</f>
         <v>1129.8979999999999</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="21">
         <f>13%*J8</f>
         <v>1622.79</v>
       </c>
-      <c r="K10" s="25">
+      <c r="K10" s="22">
         <f>K8*13%</f>
         <v>1672.5800000000002</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="22">
         <f t="shared" ref="L10:N10" si="0">L8*13%</f>
         <v>1763.71</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="22">
         <f t="shared" si="0"/>
         <v>1782.8200000000002</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="22">
         <f t="shared" si="0"/>
         <v>1774.24</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="22">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="19">
         <v>1904</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="20">
         <v>1930</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="20">
         <v>2035</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="20">
         <v>3440</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="20">
         <v>3244</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>3455</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="20">
         <v>3287</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <v>2939</v>
       </c>
-      <c r="M11" s="23">
+      <c r="M11" s="20">
         <v>2526</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="20">
         <v>2157</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>664</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>738</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>618</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>608</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>880</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20">
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="17">
         <v>954</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="18">
         <v>1131</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>1223</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="18">
         <v>1315</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="18">
         <v>1390</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="20">
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="17">
         <v>932</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="18">
         <v>881</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="18">
         <v>908</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="18">
         <v>907</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="18">
         <v>988</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="22">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="19">
         <v>895</v>
       </c>
-      <c r="K15" s="23">
+      <c r="K15" s="20">
         <v>600</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <v>600</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="20">
         <v>600</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="20">
         <v>745</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="17">
         <v>70</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>755</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>213</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>912</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <v>604</v>
       </c>
-      <c r="J16" s="20">
+      <c r="J16" s="17">
         <f>-(0.8%*I16)+I16</f>
         <v>599.16800000000001</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="18">
         <f>-(3.8%*J16)+J16</f>
         <v>576.39961600000004</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="18">
         <f>-(3.9%*K16)+K16</f>
         <v>553.92003097600002</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="18">
         <f>-(2.4%*L16)+L16</f>
         <v>540.62595023257597</v>
       </c>
-      <c r="N16" s="21">
+      <c r="N16" s="18">
         <f>-(0.9%*M16)+M16</f>
         <v>535.76031668048279</v>
       </c>
@@ -1147,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB2B78-1311-41BA-8B77-E57E89FD7212}">
-  <dimension ref="B2:U46"/>
+  <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,167 +1163,167 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="I5" s="5" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="I5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="23">
         <v>0</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="24">
         <v>1</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="24">
         <v>2</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="24">
         <v>3</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="24">
         <v>4</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="24">
         <v>5</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="9">
         <v>2017</v>
       </c>
-      <c r="R5" s="12">
+      <c r="R5" s="9">
         <v>2018</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="9">
         <v>2019</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="9">
         <v>2020</v>
       </c>
-      <c r="U5" s="12">
+      <c r="U5" s="9">
         <v>2021</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="25">
         <f>'Street Estimates'!I6</f>
         <v>9338</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="26">
         <f>'Street Estimates'!J8</f>
         <v>12483</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="26">
         <f>'Street Estimates'!K8</f>
         <v>12866</v>
       </c>
-      <c r="M6" s="30">
+      <c r="M6" s="26">
         <f>'Street Estimates'!L8</f>
         <v>13567</v>
       </c>
-      <c r="N6" s="30">
+      <c r="N6" s="26">
         <f>'Street Estimates'!M8</f>
         <v>13714</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="26">
         <f>'Street Estimates'!N8</f>
         <v>13648</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="26">
         <f>'Street Estimates'!E6</f>
         <v>10340</v>
       </c>
-      <c r="R6" s="30">
+      <c r="R6" s="26">
         <f>'Street Estimates'!F6</f>
         <v>10551</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="26">
         <f>'Street Estimates'!G6</f>
         <v>9740</v>
       </c>
-      <c r="T6" s="30">
+      <c r="T6" s="26">
         <f>'Street Estimates'!H6</f>
         <v>9328</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="26">
         <f>'Street Estimates'!I6</f>
         <v>9338</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="I7" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="25">
         <f>-'Street Estimates'!I10</f>
         <v>-1129.8979999999999</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="26">
         <f>-'Street Estimates'!J10</f>
         <v>-1622.79</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="26">
         <f>-'Street Estimates'!K10</f>
         <v>-1672.5800000000002</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="26">
         <f>-'Street Estimates'!L10</f>
         <v>-1763.71</v>
       </c>
-      <c r="N7" s="30">
+      <c r="N7" s="26">
         <f>-'Street Estimates'!M10</f>
         <v>-1782.8200000000002</v>
       </c>
-      <c r="O7" s="30">
+      <c r="O7" s="26">
         <f>-'Street Estimates'!N10</f>
         <v>-1774.24</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="26">
         <f>-'Street Estimates'!E10</f>
         <v>-8209.9600000000009</v>
       </c>
-      <c r="R7" s="30">
+      <c r="R7" s="26">
         <f>-'Street Estimates'!F10</f>
         <v>-1276.671</v>
       </c>
-      <c r="S7" s="30">
+      <c r="S7" s="26">
         <f>-'Street Estimates'!G10</f>
         <v>-1383.08</v>
       </c>
-      <c r="T7" s="30">
+      <c r="T7" s="26">
         <f>-'Street Estimates'!H10</f>
         <v>-998.096</v>
       </c>
-      <c r="U7" s="30">
+      <c r="U7" s="26">
         <f>-'Street Estimates'!I10</f>
         <v>-1129.8979999999999</v>
       </c>
@@ -1329,53 +1332,53 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="31">
         <v>3.9699999999999999E-2</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="25">
         <f>'Street Estimates'!I11</f>
         <v>3244</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="26">
         <f>'Street Estimates'!J11</f>
         <v>3455</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="26">
         <f>'Street Estimates'!K11</f>
         <v>3287</v>
       </c>
-      <c r="M8" s="30">
+      <c r="M8" s="26">
         <f>'Street Estimates'!L11</f>
         <v>2939</v>
       </c>
-      <c r="N8" s="30">
+      <c r="N8" s="26">
         <f>'Street Estimates'!M11</f>
         <v>2526</v>
       </c>
-      <c r="O8" s="30">
+      <c r="O8" s="26">
         <f>'Street Estimates'!N11</f>
         <v>2157</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="26">
         <f>'Street Estimates'!E11</f>
         <v>1904</v>
       </c>
-      <c r="R8" s="30">
+      <c r="R8" s="26">
         <f>'Street Estimates'!F11</f>
         <v>1930</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="26">
         <f>'Street Estimates'!G11</f>
         <v>2035</v>
       </c>
-      <c r="T8" s="30">
+      <c r="T8" s="26">
         <f>'Street Estimates'!H11</f>
         <v>3440</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="26">
         <f>'Street Estimates'!I11</f>
         <v>3244</v>
       </c>
@@ -1390,47 +1393,47 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="25">
         <f>-'Street Estimates'!I12</f>
         <v>-880</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="26">
         <f>-'Street Estimates'!J14</f>
         <v>-932</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="26">
         <f>-'Street Estimates'!K14</f>
         <v>-881</v>
       </c>
-      <c r="M9" s="30">
+      <c r="M9" s="26">
         <f>-'Street Estimates'!L14</f>
         <v>-908</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="26">
         <f>-'Street Estimates'!M14</f>
         <v>-907</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="26">
         <f>-'Street Estimates'!N14</f>
         <v>-988</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="26">
         <f>-'Street Estimates'!E12</f>
         <v>-664</v>
       </c>
-      <c r="R9" s="30">
+      <c r="R9" s="26">
         <f>-'Street Estimates'!F12</f>
         <v>-738</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="26">
         <f>-'Street Estimates'!G12</f>
         <v>-618</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="26">
         <f>-'Street Estimates'!H12</f>
         <v>-608</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="26">
         <f>-'Street Estimates'!I12</f>
         <v>-880</v>
       </c>
@@ -1439,53 +1442,53 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="31">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="27">
         <f>'Street Estimates'!I16</f>
         <v>604</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="28">
         <f>'Street Estimates'!J16</f>
         <v>599.16800000000001</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="28">
         <f>'Street Estimates'!K16</f>
         <v>576.39961600000004</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="28">
         <f>'Street Estimates'!L16</f>
         <v>553.92003097600002</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="28">
         <f>'Street Estimates'!M16</f>
         <v>540.62595023257597</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="28">
         <f>'Street Estimates'!N16</f>
         <v>535.76031668048279</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="28">
         <f>'Street Estimates'!E16</f>
         <v>70</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="28">
         <f>'Street Estimates'!F16</f>
         <v>755</v>
       </c>
-      <c r="S10" s="32">
+      <c r="S10" s="28">
         <f>'Street Estimates'!G16</f>
         <v>213</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="28">
         <f>'Street Estimates'!H16</f>
         <v>912</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="28">
         <f>'Street Estimates'!I16</f>
         <v>604</v>
       </c>
@@ -1494,53 +1497,53 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="31">
         <v>0.13</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="29">
+      <c r="J11" s="25">
         <f>SUM(J6:J10)</f>
         <v>11176.102000000001</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="26">
         <f>SUM(K6:K10)</f>
         <v>13982.377999999999</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="26">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>14175.819616000001</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="26">
         <f t="shared" si="0"/>
         <v>14388.210030976001</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="26">
         <f t="shared" si="0"/>
         <v>14090.805950232576</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="26">
         <f t="shared" si="0"/>
         <v>13578.520316680482</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="29">
         <f>SUM(Q6:Q10)</f>
         <v>3440.0399999999991</v>
       </c>
-      <c r="R11" s="30">
+      <c r="R11" s="26">
         <f t="shared" ref="R11:U11" si="1">SUM(R6:R10)</f>
         <v>11221.329</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="26">
         <f t="shared" si="1"/>
         <v>9986.92</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T11" s="26">
         <f t="shared" si="1"/>
         <v>12073.904</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="26">
         <f t="shared" si="1"/>
         <v>11176.102000000001</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="31">
         <v>3.0800000000000001E-2</v>
       </c>
     </row>
@@ -1565,7 +1568,7 @@
       <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>1.6799999999999999E-2</v>
       </c>
     </row>
@@ -1573,7 +1576,7 @@
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="32">
         <v>6700</v>
       </c>
     </row>
@@ -1581,25 +1584,25 @@
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="32">
         <v>33979</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="35">
+      <c r="G20" s="31">
         <f>G12+G14*(G15-G12)</f>
         <v>2.2679999999999999E-2</v>
       </c>
@@ -1608,107 +1611,107 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="33">
         <f>G17/SUM(G16:G17)</f>
         <v>0.8352958528970722</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="38">
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="34">
         <f>G16/SUM(G16:G17)</f>
         <v>0.1647041471029278</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="31">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>4.0797567049337492E-2</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="G24" s="35"/>
+      <c r="B24" s="8"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="26">
         <f>O6+O8</f>
         <v>15805</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="37">
         <f>G26*G9</f>
         <v>195982</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="34">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="30">
         <v>360336</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="26">
         <f>AVERAGE(G27:G28)</f>
         <v>278159</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="5">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="2">
         <v>1</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2">
         <v>2</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="2">
         <v>4</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1716,23 +1719,23 @@
       <c r="B32" t="s">
         <v>36</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="35">
         <f>1/(1+$G$23)^K5</f>
         <v>0.96080163103666871</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="35">
         <f t="shared" ref="H32:K32" si="2">1/(1+$G$23)^L5</f>
         <v>0.92313977420272286</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="35">
         <f t="shared" si="2"/>
         <v>0.88695420072879827</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="35">
         <f t="shared" si="2"/>
         <v>0.85218704271505419</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="35">
         <f t="shared" si="2"/>
         <v>0.81878270058893932</v>
       </c>
@@ -1741,63 +1744,63 @@
       <c r="B33" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="26">
         <f>K11*G32</f>
         <v>13434.291588171232</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="26">
         <f t="shared" ref="H33:K33" si="3">L11*H32</f>
         <v>13086.262919452771</v>
       </c>
-      <c r="I33" s="30">
+      <c r="I33" s="26">
         <f t="shared" si="3"/>
         <v>12761.683327942397</v>
       </c>
-      <c r="J33" s="30">
+      <c r="J33" s="26">
         <f t="shared" si="3"/>
         <v>12008.002252200387</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="26">
         <f t="shared" si="3"/>
         <v>11117.857534893425</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
       <c r="K34">
         <f>K32*G29</f>
         <v>227751.77721311877</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="42">
+      <c r="F35" s="38">
         <f>SUM(G33:K34)</f>
         <v>290159.87483577896</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="32">
         <v>8040</v>
       </c>
     </row>
@@ -1812,50 +1815,59 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="43">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="39">
         <v>33222</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="42">
+      <c r="F42" s="38">
         <f>F35+F38-F41</f>
         <v>264977.87483577896</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11">
         <v>534.20000000000005</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="41">
         <f>F42/F44</f>
         <v>496.02747067723499</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="41">
+        <f>F45-248.48</f>
+        <v>247.547470677235</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="44">
+      <c r="F47" s="40">
         <v>9.7699999999999995E-2</v>
       </c>
     </row>
@@ -1864,5 +1876,6 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dow 30/Amgen/Amgen DCF.xlsx
+++ b/Dow 30/Amgen/Amgen DCF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Amgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\shashwat\DCF\Dow 30\Amgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E5562-9D01-4E07-99D8-9B6341932F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8D6EA-B211-4BC3-BC32-5DC69636E949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1152,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB2B78-1311-41BA-8B77-E57E89FD7212}">
   <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1441,7 @@
         <v>19</v>
       </c>
       <c r="G10" s="31">
-        <v>5.0999999999999997E-2</v>
+        <v>3.2800000000000003E-2</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>29</v>
@@ -1635,7 +1633,7 @@
       </c>
       <c r="G23" s="31">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>4.0797567049337492E-2</v>
+        <v>2.7571492514565255E-2</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -1721,23 +1719,23 @@
       </c>
       <c r="G32" s="35">
         <f>1/(1+$G$23)^K5</f>
-        <v>0.96080163103666871</v>
+        <v>0.97316829756818668</v>
       </c>
       <c r="H32" s="35">
         <f t="shared" ref="H32:K32" si="2">1/(1+$G$23)^L5</f>
-        <v>0.92313977420272286</v>
+        <v>0.94705653539176271</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" si="2"/>
-        <v>0.88695420072879827</v>
+        <v>0.92164539624802688</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="2"/>
-        <v>0.85218704271505419</v>
+        <v>0.89691608122824906</v>
       </c>
       <c r="K32" s="35">
         <f t="shared" si="2"/>
-        <v>0.81878270058893932</v>
+        <v>0.87285029583042451</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1746,23 +1744,23 @@
       </c>
       <c r="G33" s="26">
         <f>K11*G32</f>
-        <v>13434.291588171232</v>
+        <v>13607.206994214866</v>
       </c>
       <c r="H33" s="26">
         <f t="shared" ref="H33:K33" si="3">L11*H32</f>
-        <v>13086.262919452771</v>
+        <v>13425.302611867548</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="3"/>
-        <v>12761.683327942397</v>
+        <v>13260.827535298711</v>
       </c>
       <c r="J33" s="26">
         <f t="shared" si="3"/>
-        <v>12008.002252200387</v>
+        <v>12638.270454230296</v>
       </c>
       <c r="K33" s="26">
         <f t="shared" si="3"/>
-        <v>11117.857534893425</v>
+        <v>11852.015475353988</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1775,7 +1773,7 @@
       <c r="F34" s="11"/>
       <c r="K34">
         <f>K32*G29</f>
-        <v>227751.77721311877</v>
+        <v>242791.16543789505</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1784,7 +1782,7 @@
       </c>
       <c r="F35" s="38">
         <f>SUM(G33:K34)</f>
-        <v>290159.87483577896</v>
+        <v>307574.78850886045</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1801,7 +1799,7 @@
         <v>45</v>
       </c>
       <c r="F38" s="32">
-        <v>8040</v>
+        <v>6528</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
@@ -1812,6 +1810,9 @@
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
+      </c>
+      <c r="F40">
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
@@ -1822,7 +1823,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="39">
-        <v>33222</v>
+        <v>36010</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
@@ -1830,8 +1831,8 @@
         <v>24</v>
       </c>
       <c r="F42" s="38">
-        <f>F35+F38-F41</f>
-        <v>264977.87483577896</v>
+        <f>F35+F38-F41-F40</f>
+        <v>277248.78850886045</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -1851,7 +1852,7 @@
       </c>
       <c r="F45" s="41">
         <f>F42/F44</f>
-        <v>496.02747067723499</v>
+        <v>518.99810653100042</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -1860,7 +1861,7 @@
       </c>
       <c r="F46" s="41">
         <f>F45-248.48</f>
-        <v>247.547470677235</v>
+        <v>270.5181065310004</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
@@ -1876,6 +1877,6 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dow 30/Amgen/Amgen DCF.xlsx
+++ b/Dow 30/Amgen/Amgen DCF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogdan\Desktop\shashwat\DCF\Dow 30\Amgen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\DCF\Dow 30\Amgen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8D6EA-B211-4BC3-BC32-5DC69636E949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB575EB2-C715-4745-A8B2-14126EF533FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
+    <workbookView xWindow="23880" yWindow="-6750" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{5A64D7A2-53DB-40AE-A032-E61759EBA28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Street Estimates" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -1150,8 +1152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB2B78-1311-41BA-8B77-E57E89FD7212}">
   <dimension ref="B2:U47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="G15" s="31">
-        <v>1.6799999999999999E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
@@ -1602,7 +1604,7 @@
       </c>
       <c r="G20" s="31">
         <f>G12+G14*(G15-G12)</f>
-        <v>2.2679999999999999E-2</v>
+        <v>5.3536E-2</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
@@ -1633,7 +1635,7 @@
       </c>
       <c r="G23" s="31">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>2.7571492514565255E-2</v>
+        <v>3.2653603677573195E-2</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
@@ -1719,23 +1721,23 @@
       </c>
       <c r="G32" s="35">
         <f>1/(1+$G$23)^K5</f>
-        <v>0.97316829756818668</v>
+        <v>0.9683789379504566</v>
       </c>
       <c r="H32" s="35">
         <f t="shared" ref="H32:K32" si="2">1/(1+$G$23)^L5</f>
-        <v>0.94705653539176271</v>
+        <v>0.93775776746605444</v>
       </c>
       <c r="I32" s="35">
         <f t="shared" si="2"/>
-        <v>0.92164539624802688</v>
+        <v>0.90810487091356917</v>
       </c>
       <c r="J32" s="35">
         <f t="shared" si="2"/>
-        <v>0.89691608122824906</v>
+        <v>0.87938963044291862</v>
       </c>
       <c r="K32" s="35">
         <f t="shared" si="2"/>
-        <v>0.87285029583042451</v>
+        <v>0.85158239637295807</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
@@ -1744,23 +1746,23 @@
       </c>
       <c r="G33" s="26">
         <f>K11*G32</f>
-        <v>13607.206994214866</v>
+        <v>13540.240357661829</v>
       </c>
       <c r="H33" s="26">
         <f t="shared" ref="H33:K33" si="3">L11*H32</f>
-        <v>13425.302611867548</v>
+        <v>13293.484955101661</v>
       </c>
       <c r="I33" s="26">
         <f t="shared" si="3"/>
-        <v>13260.827535298711</v>
+        <v>13066.003612856783</v>
       </c>
       <c r="J33" s="26">
         <f t="shared" si="3"/>
-        <v>12638.270454230296</v>
+        <v>12391.308637217904</v>
       </c>
       <c r="K33" s="26">
         <f t="shared" si="3"/>
-        <v>11852.015475353988</v>
+        <v>11563.228870477662</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -1773,7 +1775,7 @@
       <c r="F34" s="11"/>
       <c r="K34">
         <f>K32*G29</f>
-        <v>242791.16543789505</v>
+        <v>236875.30779270566</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
@@ -1782,7 +1784,7 @@
       </c>
       <c r="F35" s="38">
         <f>SUM(G33:K34)</f>
-        <v>307574.78850886045</v>
+        <v>300729.57422602148</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
@@ -1832,7 +1834,7 @@
       </c>
       <c r="F42" s="38">
         <f>F35+F38-F41-F40</f>
-        <v>277248.78850886045</v>
+        <v>270403.57422602148</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -1852,7 +1854,7 @@
       </c>
       <c r="F45" s="41">
         <f>F42/F44</f>
-        <v>518.99810653100042</v>
+        <v>506.1841524260978</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
@@ -1861,7 +1863,7 @@
       </c>
       <c r="F46" s="41">
         <f>F45-248.48</f>
-        <v>270.5181065310004</v>
+        <v>257.70415242609783</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
